--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HAiL/IdeaProjects/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03689487-9960-0C46-B2F6-36F19CABC872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5BDF90-5838-C244-A533-45D6AB66BFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{65C071D6-35E3-2E41-BFCA-BB0FD80C3221}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -96,10 +96,6 @@
 2. Fill "Demo accaunt" creds and press "login" button</t>
   </si>
   <si>
-    <t>1. Login page is opened with 'username' and 'password' field enabled and empty
-2. Login success, … is opened.</t>
-  </si>
-  <si>
     <t>1. Open "https://katalon-demo-cura.herokuapp.com/profile.php#login" page
 2. Fill log&amp;pass 'JohnDoe'&amp;'ThisIsNotAPassword'  and press "login" button</t>
   </si>
@@ -110,6 +106,37 @@
   <si>
     <t>1. Open "https://katalon-demo-cura.herokuapp.com/profile.php#login" page
 2. Leave log&amp;pass field empty and press "login" button</t>
+  </si>
+  <si>
+    <t>1. Login page is opened with 'username' and 'password' field enabled and empty
+2. Login success, 'Make Appointment" page is opened.</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Choose today's date and confirm appointment</t>
+  </si>
+  <si>
+    <t>1. Login success, 'Make Appointment" page is opened.
+2. 'Appointment confirmation' page is opened with next info provided:
+Facility - Tokyo CURA Healthcare Center
+Apply for hospital readmission - No
+Healthcare Program - Medicare
+Visit Date - [today's date]
+Comment - []</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Choose yesterday's date and confirm appointment</t>
+  </si>
+  <si>
+    <t>1. Login success, 'Make Appointment" page is opened.
+2. 'Appointment confirmation' page shouldn't open</t>
+  </si>
+  <si>
+    <t>Link to bugTicket</t>
+  </si>
+  <si>
+    <t>Here should be a link to bug, cause application gives opportunity to create an appointment in  the past.</t>
   </si>
 </sst>
 </file>
@@ -153,8 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -478,147 +508,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11521633-3DEA-3E4C-AB79-FBDC9057BE01}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="84.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="28.5" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
